--- a/P4/Cuestionario SUS DIU.xlsx
+++ b/P4/Cuestionario SUS DIU.xlsx
@@ -20,92 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
   <si>
     <t xml:space="preserve">EQUIPO:  DUI2.Polaco</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">TEST A: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">MyTourExplorer</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">TEST B: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Artesanía Nazarí</t>
-    </r>
+    <t xml:space="preserve">TEST A: MyTourExplorer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST B: Artesanía Nazarí</t>
   </si>
   <si>
     <t xml:space="preserve">DISEÑO DE INTERFACES DE USUARIO </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Web: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/Ismael034/DIU</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Web:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/SoldadosDelNano/DIU</t>
-    </r>
+    <t xml:space="preserve">Web: https://github.com/Ismael034/DIU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web:  https://github.com/SoldadosDelNano/DIU</t>
   </si>
   <si>
     <t xml:space="preserve">PRACTICA 4 - Cuestionario SUS </t>
@@ -120,16 +52,10 @@
     <t xml:space="preserve">USUARIO ID: </t>
   </si>
   <si>
-    <t xml:space="preserve">Raquel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nuria</t>
   </si>
   <si>
-    <t xml:space="preserve">Ramón</t>
+    <t xml:space="preserve">Elías</t>
   </si>
   <si>
     <t xml:space="preserve">SEXO</t>
@@ -147,43 +73,28 @@
     <t xml:space="preserve">OCUPACION</t>
   </si>
   <si>
-    <t xml:space="preserve">Desarolladora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empresario</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jubilada</t>
   </si>
   <si>
-    <t xml:space="preserve">Estudiante</t>
+    <t xml:space="preserve">Profesor</t>
   </si>
   <si>
     <t xml:space="preserve">EXPERIENCIA TIC</t>
   </si>
   <si>
+    <t xml:space="preserve">Baja</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alta</t>
   </si>
   <si>
-    <t xml:space="preserve">Baja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media</t>
-  </si>
-  <si>
     <t xml:space="preserve">PERFIL (describir)</t>
   </si>
   <si>
-    <t xml:space="preserve">Persona discapacitada con problemas de movilidad. Está triste porque no encuentra actividades que se adapten a su discapcidad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empresario de mediana edad con poco tiempo. Está feliz porque ha podido encontrar toda la información de las actividades de manera rápida</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jubilada aficionada a la fotografía y subir sus experiencias a su blog personal. Está enfadada ya que no puede compartir las actividades desde la web.</t>
   </si>
   <si>
-    <t xml:space="preserve">Estudiante joven aficionado al senderismo. Está impresionado por laa simplicidad de la web y por lo claros que están todos los links y botones.</t>
+    <t xml:space="preserve">Usuario en TIC avanzado tanto por su desempeño profesional como por el uso de webs para comercio online, consultas, y transacciones financieras. Alguna experiencia muy básica en diseño web y programación.</t>
   </si>
   <si>
     <t xml:space="preserve">1: Completamente en desacuerdo</t>
@@ -193,67 +104,6 @@
   </si>
   <si>
     <t xml:space="preserve">CUESTIONARIO SUS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Valoracion </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Raquel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  (entre 1-5)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Normalizado</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Valoracion </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Pedro</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Cambria"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">  (entre 1-5)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -285,6 +135,69 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Normalizado</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Valoracion </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Elías</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  (entre 1-5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Valoracion </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Nuria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">  (entre 1-5)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -301,7 +214,7 @@
         <rFont val="Arial"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">Ramón</t>
+      <t xml:space="preserve">Elías</t>
     </r>
     <r>
       <rPr>
@@ -487,7 +400,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -517,11 +430,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Cambria"/>
@@ -549,14 +457,14 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -590,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -658,19 +566,35 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thick">
+        <color rgb="FF00FF00"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thick">
-        <color rgb="FF00FF00"/>
-      </right>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thick">
-        <color rgb="FF00FF00"/>
+        <color rgb="FF2A6099"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thick">
+        <color rgb="FF00FF00"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -816,160 +740,184 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1015,7 +963,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1061,583 +1009,591 @@
   </sheetPr>
   <dimension ref="A1:K1007"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.86"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="0" width="27.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="27.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="27.86"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="27.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="27.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="C5" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="F5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10" t="s">
+      <c r="C6" s="15" t="n">
+        <v>68</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12" t="n">
+        <v>56</v>
+      </c>
+      <c r="F6" s="13" t="n">
+        <v>68</v>
+      </c>
+      <c r="G6" s="14" t="n">
+        <v>56</v>
+      </c>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="s">
+      <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="109.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10" t="n">
-        <v>43</v>
-      </c>
-      <c r="F6" s="12" t="n">
-        <v>68</v>
-      </c>
-      <c r="G6" s="11" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="7" t="s">
+      <c r="F9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="G9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10" t="s">
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="9"/>
+      <c r="C10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="E11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="F11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C12" s="20" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="79.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="7" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10" t="s">
+      <c r="D13" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="E13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="F13" s="29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="7"/>
-      <c r="C10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C11" s="13" t="s">
+      <c r="G13" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="13" t="s">
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="26" t="n">
+      <c r="C14" s="33" t="n">
         <v>5</v>
       </c>
-      <c r="D14" s="27" t="n">
+      <c r="D14" s="34" t="n">
         <f aca="false">C14-1</f>
         <v>4</v>
       </c>
-      <c r="E14" s="28" t="n">
+      <c r="E14" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="F14" s="29" t="n">
+      <c r="F14" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="G14" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
+      <c r="G14" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
     </row>
     <row r="15" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="n">
+      <c r="A15" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="26" t="n">
+      <c r="B15" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="27" t="n">
+      <c r="D15" s="34" t="n">
         <f aca="false">5-C15</f>
         <v>3</v>
       </c>
-      <c r="E15" s="28" t="n">
+      <c r="E15" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="F15" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="30" t="n">
+      <c r="G15" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="n">
+      <c r="A16" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="26" t="n">
+      <c r="B16" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="D16" s="27" t="n">
+      <c r="D16" s="34" t="n">
         <f aca="false">C16-1</f>
         <v>3</v>
       </c>
-      <c r="E16" s="28" t="n">
+      <c r="E16" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="F16" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="G16" s="30" t="n">
+      <c r="G16" s="37" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="26" t="n">
+      <c r="B17" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="27" t="n">
+      <c r="D17" s="34" t="n">
         <f aca="false">5-C17</f>
         <v>4</v>
       </c>
-      <c r="E17" s="28" t="n">
+      <c r="E17" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="F17" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="26" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" s="27" t="n">
+      <c r="D18" s="34" t="n">
         <f aca="false">C18-1</f>
         <v>2</v>
       </c>
-      <c r="E18" s="28" t="n">
+      <c r="E18" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="F18" s="29" t="n">
+      <c r="F18" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="G18" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
+      <c r="G18" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="n">
+      <c r="A19" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="B19" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="26" t="n">
+      <c r="B19" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="27" t="n">
+      <c r="D19" s="34" t="n">
         <f aca="false">5-C19</f>
         <v>4</v>
       </c>
-      <c r="E19" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="29" t="n">
+      <c r="E19" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
+      <c r="G19" s="37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="n">
+      <c r="A20" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="26" t="n">
+      <c r="B20" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="D20" s="27" t="n">
+      <c r="D20" s="34" t="n">
         <f aca="false">C20-1</f>
         <v>3</v>
       </c>
-      <c r="E20" s="28" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" s="29" t="n">
+      <c r="E20" s="35" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="G20" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
+      <c r="G20" s="37" t="n">
+        <v>5</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="n">
+      <c r="A21" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="26" t="n">
+      <c r="B21" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="D21" s="27" t="n">
+      <c r="D21" s="34" t="n">
         <f aca="false">5-C21</f>
         <v>3</v>
       </c>
-      <c r="E21" s="28" t="n">
+      <c r="E21" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
+      <c r="G21" s="37" t="n">
+        <v>5</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="n">
+      <c r="A22" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="26" t="n">
+      <c r="B22" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="D22" s="27" t="n">
+      <c r="D22" s="34" t="n">
         <f aca="false">C22-1</f>
         <v>3</v>
       </c>
-      <c r="E22" s="28" t="n">
-        <v>4</v>
-      </c>
-      <c r="F22" s="29" t="n">
+      <c r="E22" s="35" t="n">
         <v>3</v>
       </c>
-      <c r="G22" s="30" t="n">
-        <v>4</v>
-      </c>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
+      <c r="F22" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G22" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="n">
+      <c r="A23" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="26" t="n">
+      <c r="B23" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="27" t="n">
+      <c r="D23" s="34" t="n">
         <f aca="false">5-C23</f>
         <v>4</v>
       </c>
-      <c r="E23" s="28" t="n">
+      <c r="E23" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="F23" s="29" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="G23" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17"/>
-      <c r="B24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="31" t="n">
+      <c r="A24" s="24"/>
+      <c r="B24" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="38" t="n">
         <f aca="false">((C14-1)+(5-C15)+(C16-1)+(5-C17)+(C18-1)+(5-C19)+(C20-1)+(5-C21)+(C22-1)+(5-C23))*2.5</f>
         <v>82.5</v>
       </c>
-      <c r="D24" s="32" t="n">
+      <c r="D24" s="39" t="n">
         <f aca="false">(SUM(D14:D23))*2.5</f>
         <v>82.5</v>
       </c>
-      <c r="E24" s="33" t="n">
+      <c r="E24" s="40" t="n">
         <f aca="false">((E14-1)+(5-E15)+(E16-1)+(5-E17)+(E18-1)+(5-E19)+(E20-1)+(5-E21)+(E22-1)+(5-E23))*2.5</f>
-        <v>70</v>
-      </c>
-      <c r="F24" s="34" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="F24" s="41" t="n">
         <f aca="false">((F14-1)+(5-F15)+(F16-1)+(5-F17)+(F18-1)+(5-F19)+(F20-1)+(5-F21)+(F22-1)+(5-F23))*2.5</f>
         <v>60</v>
       </c>
-      <c r="G24" s="35" t="n">
+      <c r="G24" s="42" t="n">
         <f aca="false">((G14-1)+(5-G15)+(G16-1)+(5-G17)+(G18-1)+(5-G19)+(G20-1)+(5-G21)+(G22-1)+(5-G23))*2.5</f>
-        <v>75</v>
-      </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
+        <v>62.5</v>
+      </c>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
     </row>
     <row r="25" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="37"/>
+      <c r="B25" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="37"/>
+      <c r="B26" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="36" t="s">
-        <v>53</v>
+      <c r="B27" s="43" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="7" t="s">
-        <v>54</v>
+      <c r="B28" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="7" t="s">
-        <v>55</v>
+      <c r="B29" s="9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="7" t="s">
-        <v>56</v>
+      <c r="B30" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1" t="s">
-        <v>57</v>
+      <c r="B33" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="38" t="s">
-        <v>58</v>
+      <c r="B34" s="44" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2626,8 +2582,8 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://github.com/Ismael034/DIU"/>
-    <hyperlink ref="F2" r:id="rId2" display="https://github.com/SoldadosDelNano/DIU"/>
+    <hyperlink ref="C2" r:id="rId1" display="Web: https://github.com/Ismael034/DIU"/>
+    <hyperlink ref="F2" r:id="rId2" display="Web:  https://github.com/SoldadosDelNano/DIU"/>
     <hyperlink ref="B34" r:id="rId3" display="http://www.measuringux.com/sus/SUS.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
